--- a/html/resources/aoiConditions/train1P1Block1Test.xlsx
+++ b/html/resources/aoiConditions/train1P1Block1Test.xlsx
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -40,7 +40,7 @@
     <t>pngimages/01_gift.png</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako2.wav</t>
+    <t>train1P1</t>
   </si>
   <si>
     <t>pngimages/17_cracker.png</t>

--- a/html/resources/aoiConditions/train1P1Block1Test.xlsx
+++ b/html/resources/aoiConditions/train1P1Block1Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
   </si>
   <si>
     <t>train1P1</t>
   </si>
   <si>
-    <t>pngimages/17_cracker.png</t>
+    <t>pngimages/06_tent.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P1Block1Test.xlsx
+++ b/html/resources/aoiConditions/train1P1Block1Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.wav</t>
+    <t>trainingaudio/19_papipi1.mp3</t>
   </si>
   <si>
     <t>pngimages/19_burger.png</t>

--- a/html/resources/aoiConditions/train1P1Block1Test.xlsx
+++ b/html/resources/aoiConditions/train1P1Block1Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.mp3</t>
+    <t>trainingaudio/19_papipi1.ogg</t>
   </si>
   <si>
     <t>pngimages/19_burger.png</t>

--- a/html/resources/aoiConditions/train1P1Block1Test.xlsx
+++ b/html/resources/aoiConditions/train1P1Block1Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.ogg</t>
+    <t>trainingaudio/19_papipi1.wav</t>
   </si>
   <si>
     <t>pngimages/19_burger.png</t>
